--- a/fs/time-estimate.xlsx
+++ b/fs/time-estimate.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -542,9 +541,6 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -569,6 +565,9 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -866,7 +865,7 @@
   <dimension ref="B1:AC90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -905,7 +904,7 @@
       </c>
       <c r="H1" s="54">
         <f ca="1">NOW()</f>
-        <v>41598.753521412036</v>
+        <v>41605.726865393517</v>
       </c>
     </row>
     <row r="2" spans="2:29">
@@ -952,27 +951,27 @@
     </row>
     <row r="9" spans="2:29" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:29" s="25" customFormat="1" ht="15.75" thickTop="1">
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="57"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="69"/>
       <c r="V10" s="5" t="s">
         <v>28</v>
       </c>
@@ -1034,7 +1033,7 @@
       <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="2:29" s="25" customFormat="1">
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="55" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="27" t="s">
@@ -1493,27 +1492,27 @@
       </c>
     </row>
     <row r="18" spans="2:29" s="25" customFormat="1" ht="15.75" thickTop="1">
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="57"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="69"/>
       <c r="V18" s="5">
         <v>17243</v>
       </c>
@@ -1658,7 +1657,7 @@
         <v>100</v>
       </c>
       <c r="E21" s="9">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F21" s="7">
         <v>35</v>
@@ -1668,21 +1667,21 @@
       </c>
       <c r="H21" s="4">
         <f>$C21/D21*(E21*F21*G21)</f>
-        <v>211226.75</v>
+        <v>60350.5</v>
       </c>
       <c r="I21" s="2">
         <f>+H21/3600</f>
-        <v>58.674097222222223</v>
+        <v>16.764027777777777</v>
       </c>
       <c r="J21" s="3">
         <f>+I21/24</f>
-        <v>2.4447540509259258</v>
+        <v>0.69850115740740737</v>
       </c>
       <c r="K21" s="8">
         <v>25</v>
       </c>
       <c r="L21" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M21" s="6">
         <v>1</v>
@@ -1692,95 +1691,95 @@
       </c>
       <c r="O21" s="4">
         <f>$C21/K21*(L21*M21*N21)</f>
-        <v>82766.400000000009</v>
+        <v>41383.200000000004</v>
       </c>
       <c r="P21" s="2">
         <f>+O21/3600</f>
-        <v>22.990666666666669</v>
+        <v>11.495333333333335</v>
       </c>
       <c r="Q21" s="3">
         <f>+P21/24</f>
-        <v>0.9579444444444446</v>
+        <v>0.4789722222222223</v>
       </c>
       <c r="R21" s="4">
         <f>H21+O21</f>
-        <v>293993.15000000002</v>
+        <v>101733.70000000001</v>
       </c>
       <c r="S21" s="2">
         <f>+R21/3600</f>
-        <v>81.664763888888899</v>
+        <v>28.259361111111115</v>
       </c>
       <c r="T21" s="14">
         <f>+S21/24</f>
-        <v>3.4026984953703709</v>
+        <v>1.1774733796296297</v>
       </c>
     </row>
     <row r="22" spans="2:29">
-      <c r="B22" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="60">
+      <c r="B22" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="57">
         <v>31134</v>
       </c>
-      <c r="D22" s="61">
+      <c r="D22" s="58">
         <v>100</v>
       </c>
-      <c r="E22" s="62">
-        <v>40</v>
-      </c>
-      <c r="F22" s="63">
+      <c r="E22" s="59">
+        <v>10</v>
+      </c>
+      <c r="F22" s="60">
         <v>35</v>
       </c>
-      <c r="G22" s="64">
-        <v>1</v>
-      </c>
-      <c r="H22" s="65">
+      <c r="G22" s="61">
+        <v>1</v>
+      </c>
+      <c r="H22" s="62">
         <f>$C22/D22*(E22*F22*G22)</f>
-        <v>435875.99999999994</v>
-      </c>
-      <c r="I22" s="66">
+        <v>108968.99999999999</v>
+      </c>
+      <c r="I22" s="63">
         <f>+H22/3600</f>
-        <v>121.07666666666665</v>
-      </c>
-      <c r="J22" s="67">
+        <v>30.269166666666663</v>
+      </c>
+      <c r="J22" s="64">
         <f>+I22/24</f>
-        <v>5.0448611111111106</v>
-      </c>
-      <c r="K22" s="61">
-        <v>15</v>
-      </c>
-      <c r="L22" s="62">
-        <v>50</v>
-      </c>
-      <c r="M22" s="68">
-        <v>1</v>
-      </c>
-      <c r="N22" s="64">
+        <v>1.2612152777777776</v>
+      </c>
+      <c r="K22" s="58">
+        <v>25</v>
+      </c>
+      <c r="L22" s="59">
+        <v>44</v>
+      </c>
+      <c r="M22" s="65">
+        <v>1</v>
+      </c>
+      <c r="N22" s="61">
         <v>2</v>
       </c>
-      <c r="O22" s="65">
+      <c r="O22" s="62">
         <f>$C22/K22*(L22*M22*N22)</f>
-        <v>207560</v>
-      </c>
-      <c r="P22" s="66">
+        <v>109591.67999999999</v>
+      </c>
+      <c r="P22" s="63">
         <f>+O22/3600</f>
-        <v>57.655555555555559</v>
-      </c>
-      <c r="Q22" s="67">
+        <v>30.442133333333331</v>
+      </c>
+      <c r="Q22" s="64">
         <f>+P22/24</f>
-        <v>2.4023148148148148</v>
-      </c>
-      <c r="R22" s="65">
+        <v>1.2684222222222221</v>
+      </c>
+      <c r="R22" s="62">
         <f>H22+O22</f>
-        <v>643436</v>
-      </c>
-      <c r="S22" s="66">
+        <v>218560.68</v>
+      </c>
+      <c r="S22" s="63">
         <f>+R22/3600</f>
-        <v>178.73222222222222</v>
-      </c>
-      <c r="T22" s="69">
+        <v>60.711300000000001</v>
+      </c>
+      <c r="T22" s="66">
         <f>+S22/24</f>
-        <v>7.4471759259259258</v>
+        <v>2.5296375000000002</v>
       </c>
     </row>
     <row r="23" spans="2:29">
@@ -1791,34 +1790,34 @@
         <v>4636</v>
       </c>
       <c r="D23" s="8">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E23" s="9">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F23" s="7">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G23" s="11">
         <v>1</v>
       </c>
       <c r="H23" s="4">
         <f>$C23/D23*(E23*F23*G23)</f>
-        <v>44042</v>
+        <v>17524.080000000002</v>
       </c>
       <c r="I23" s="2">
         <f>+H23/3600</f>
-        <v>12.233888888888888</v>
+        <v>4.8678000000000008</v>
       </c>
       <c r="J23" s="3">
         <f>+I23/24</f>
-        <v>0.50974537037037038</v>
+        <v>0.20282500000000003</v>
       </c>
       <c r="K23" s="8">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="L23" s="9">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M23" s="6">
         <v>1</v>
@@ -1828,27 +1827,27 @@
       </c>
       <c r="O23" s="4">
         <f>$C23/K23*(L23*M23*N23)</f>
-        <v>92720</v>
+        <v>14835.2</v>
       </c>
       <c r="P23" s="2">
         <f>+O23/3600</f>
-        <v>25.755555555555556</v>
+        <v>4.1208888888888895</v>
       </c>
       <c r="Q23" s="3">
         <f>+P23/24</f>
-        <v>1.0731481481481482</v>
+        <v>0.17170370370370372</v>
       </c>
       <c r="R23" s="4">
         <f>H23+O23</f>
-        <v>136762</v>
+        <v>32359.280000000002</v>
       </c>
       <c r="S23" s="2">
         <f>+R23/3600</f>
-        <v>37.989444444444445</v>
+        <v>8.9886888888888894</v>
       </c>
       <c r="T23" s="14">
         <f>+S23/24</f>
-        <v>1.5828935185185184</v>
+        <v>0.37452870370370372</v>
       </c>
     </row>
     <row r="24" spans="2:29" ht="15.75" thickBot="1">
@@ -1859,34 +1858,34 @@
         <v>1278</v>
       </c>
       <c r="D24" s="15">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E24" s="16">
+        <v>55</v>
+      </c>
+      <c r="F24" s="24">
         <v>35</v>
-      </c>
-      <c r="F24" s="24">
-        <v>20</v>
       </c>
       <c r="G24" s="22">
         <v>1</v>
       </c>
       <c r="H24" s="19">
         <f>$C24/D24*(E24*F24*G24)</f>
-        <v>8946</v>
+        <v>4920.3</v>
       </c>
       <c r="I24" s="20">
         <f>+H24/3600</f>
-        <v>2.4849999999999999</v>
+        <v>1.3667500000000001</v>
       </c>
       <c r="J24" s="21">
         <f>+I24/24</f>
-        <v>0.10354166666666666</v>
+        <v>5.6947916666666674E-2</v>
       </c>
       <c r="K24" s="15">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="L24" s="16">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M24" s="17">
         <v>1</v>
@@ -1896,27 +1895,27 @@
       </c>
       <c r="O24" s="19">
         <f>$C24/K24*(L24*M24*N24)</f>
-        <v>38340</v>
+        <v>4089.6</v>
       </c>
       <c r="P24" s="20">
         <f>+O24/3600</f>
-        <v>10.65</v>
+        <v>1.1359999999999999</v>
       </c>
       <c r="Q24" s="21">
         <f>+P24/24</f>
-        <v>0.44375000000000003</v>
+        <v>4.7333333333333331E-2</v>
       </c>
       <c r="R24" s="19">
         <f>H24+O24</f>
-        <v>47286</v>
+        <v>9009.9</v>
       </c>
       <c r="S24" s="20">
         <f>+R24/3600</f>
-        <v>13.135</v>
+        <v>2.5027499999999998</v>
       </c>
       <c r="T24" s="23">
         <f>+S24/24</f>
-        <v>0.54729166666666662</v>
+        <v>0.10428124999999999</v>
       </c>
     </row>
     <row r="25" spans="2:29" ht="15.75" thickTop="1"/>
